--- a/Documents/setting.xlsx
+++ b/Documents/setting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78D5EA7-B610-4BD6-83D8-2C33072A78AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125FF525-A412-4042-8E3A-6FD0EFA0A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="570" windowWidth="17220" windowHeight="14205" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_file_setting" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="223">
   <si>
     <t>file_id</t>
   </si>
@@ -1246,10 +1246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JavaScriptのメソッド名</t>
     <rPh sb="15" eb="16">
       <t>メイ</t>
@@ -1330,6 +1326,126 @@
     <rPh sb="67" eb="69">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jis_range_1byte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jis_range_2byte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unicode_range</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JISの1byte範囲指定</t>
+    <rPh sb="9" eb="13">
+      <t>ハンイシテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JISの2byte範囲指定</t>
+    <rPh sb="9" eb="13">
+      <t>ハンイシテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unicodeの範囲指定</t>
+    <rPh sb="8" eb="12">
+      <t>ハンイシテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別[0x00,0x00]範囲[0x30,0x39]</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別[0x8444,0x8444]範囲[0x8900,0x8FE0]</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別[0x1F300,0x1F300]範囲[0x1F310,0x1F5FF]</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>none:0
+jis_1byte;1
+jis_2byte;2
+jis_1-2byte:3
+unicode:4
+check_only:9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1～4で文字コード範囲のチェック
+9は通常チェックのみ
+文字コードの範囲設定は
+t_file_settingでする</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ハンイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード範囲外</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハンイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ji_range_1byte</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1408,7 +1524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1431,12 +1547,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1475,6 +1628,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1758,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F19"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1874,7 +2036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="63" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1908,125 +2070,170 @@
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C12:C17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2036,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:E17"/>
+  <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2049,10 +2256,11 @@
     <col min="3" max="3" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.625" style="7"/>
+    <col min="6" max="6" width="25.125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2063,8 +2271,9 @@
         <v>71</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -2075,8 +2284,9 @@
         <v>76</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -2087,8 +2297,9 @@
         <v>73</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -2099,8 +2310,9 @@
         <v>74</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -2111,8 +2323,9 @@
         <v>75</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" ht="189" x14ac:dyDescent="0.4">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="189" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -2125,8 +2338,9 @@
       <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -2137,8 +2351,9 @@
         <v>78</v>
       </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -2151,8 +2366,9 @@
       <c r="E10" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -2165,8 +2381,9 @@
       <c r="E11" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -2179,8 +2396,9 @@
       <c r="E12" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -2191,8 +2409,9 @@
         <v>82</v>
       </c>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -2203,8 +2422,9 @@
         <v>83</v>
       </c>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -2215,8 +2435,9 @@
         <v>84</v>
       </c>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -2227,10 +2448,11 @@
         <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -2241,7 +2463,10 @@
         <v>87</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>89</v>
+        <v>219</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2432,10 +2657,10 @@
         <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2497,10 +2722,10 @@
         <v>111</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
@@ -2700,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2711,8 +2936,8 @@
     <col min="1" max="1" width="2.625" style="7"/>
     <col min="2" max="2" width="2.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
@@ -2821,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>138</v>
@@ -2847,13 +3072,55 @@
         <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>200</v>
+    </row>
+    <row r="13" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2864,9 +3131,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2874,10 +3143,11 @@
     <col min="3" max="3" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.625" style="7"/>
+    <col min="6" max="6" width="37.5" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -2888,8 +3158,9 @@
         <v>71</v>
       </c>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
@@ -2900,8 +3171,9 @@
         <v>72</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
@@ -2912,8 +3184,9 @@
         <v>153</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="110.25" x14ac:dyDescent="0.4">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="110.25" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
@@ -2926,8 +3199,9 @@
       <c r="E5" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
@@ -2938,8 +3212,9 @@
         <v>154</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
@@ -2950,8 +3225,9 @@
         <v>23</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
@@ -2964,8 +3240,9 @@
       <c r="E8" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
@@ -2976,8 +3253,9 @@
         <v>149</v>
       </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2988,22 +3266,24 @@
         <v>150</v>
       </c>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -3014,10 +3294,13 @@
         <v>151</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
@@ -3030,6 +3313,7 @@
       <c r="E13" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3039,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B3:C24"/>
+  <dimension ref="B3:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -3205,11 +3489,19 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="12">
+        <v>54</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="12">
         <v>99</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>178</v>
       </c>
     </row>
